--- a/test.xlsx
+++ b/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amax4\Desktop\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amax4\Desktop\ahogit\aho-corasick\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99687EA6-C862-4386-AA01-E7BC33BE629E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C201174D-F41E-4CB9-A671-74127DD1705B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4056" yWindow="1944" windowWidth="10692" windowHeight="8964" xr2:uid="{92ED2648-DA34-411B-9C43-F4EAFF9F3DF1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{92ED2648-DA34-411B-9C43-F4EAFF9F3DF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="452">
   <si>
     <t>Type</t>
   </si>
@@ -1903,16 +1903,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{428F6169-2ACF-44F9-8F88-60514614D8C0}">
-  <dimension ref="B1:AA34"/>
+  <dimension ref="B1:AD33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AA34"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:27" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:30" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1"/>
       <c r="C2" s="2" t="s">
         <v>0</v>
@@ -1946,7 +1946,7 @@
       <c r="Z2" s="3"/>
       <c r="AA2" s="3"/>
     </row>
-    <row r="3" spans="2:27" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:30" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1"/>
       <c r="C3" s="4" t="s">
         <v>3</v>
@@ -1992,7 +1992,7 @@
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
     </row>
-    <row r="4" spans="2:27" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:30" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
       <c r="C4" s="4"/>
       <c r="D4" s="9" t="s">
@@ -2060,7 +2060,7 @@
       <c r="Z4" s="3"/>
       <c r="AA4" s="3"/>
     </row>
-    <row r="5" spans="2:27" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:30" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
@@ -2116,7 +2116,7 @@
       <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
     </row>
-    <row r="6" spans="2:27" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:30" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
@@ -2174,7 +2174,7 @@
       <c r="Z6" s="3"/>
       <c r="AA6" s="3"/>
     </row>
-    <row r="7" spans="2:27" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:30" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
@@ -2228,7 +2228,7 @@
       <c r="Z7" s="3"/>
       <c r="AA7" s="3"/>
     </row>
-    <row r="8" spans="2:27" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:30" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
@@ -2278,7 +2278,7 @@
       <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
     </row>
-    <row r="9" spans="2:27" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:30" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
@@ -2338,7 +2338,7 @@
       <c r="Z9" s="3"/>
       <c r="AA9" s="3"/>
     </row>
-    <row r="10" spans="2:27" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:30" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="1"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
@@ -2414,7 +2414,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="2:27" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:30" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="1"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
@@ -2488,7 +2488,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="12" spans="2:27" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:30" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="1"/>
       <c r="C12" s="13"/>
       <c r="D12" s="13" t="s">
@@ -2536,7 +2536,7 @@
       <c r="Z12" s="3"/>
       <c r="AA12" s="3"/>
     </row>
-    <row r="13" spans="2:27" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:30" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4" t="s">
@@ -2611,32 +2611,61 @@
       <c r="AA13" s="11" t="s">
         <v>177</v>
       </c>
+      <c r="AB13" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="AC13" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="AD13" s="11" t="s">
+        <v>180</v>
+      </c>
     </row>
-    <row r="14" spans="2:27" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:30" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="1"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="5"/>
+        <v>181</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q14" s="12" t="s">
+        <v>193</v>
+      </c>
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
@@ -2648,51 +2677,45 @@
       <c r="Z14" s="3"/>
       <c r="AA14" s="3"/>
     </row>
-    <row r="15" spans="2:27" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:30" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="1"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="N15" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="O15" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="P15" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q15" s="12" t="s">
-        <v>193</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="N15" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="O15" s="3"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
@@ -2704,53 +2727,71 @@
       <c r="Z15" s="3"/>
       <c r="AA15" s="3"/>
     </row>
-    <row r="16" spans="2:27" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:30" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="1"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="N16" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="O16" s="3"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
+        <v>211</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="R16" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="S16" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="T16" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="U16" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="V16" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="W16" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
     </row>
@@ -2758,174 +2799,160 @@
       <c r="B17" s="1"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="R17" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="S17" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="T17" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="U17" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="V17" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="W17" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="3"/>
+        <v>237</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="T17" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="U17" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="V17" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="W17" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="X17" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y17" s="5"/>
       <c r="Z17" s="3"/>
       <c r="AA17" s="3"/>
     </row>
     <row r="18" spans="2:27" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="1"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4" t="s">
-        <v>225</v>
+      <c r="C18" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>247</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="N18" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="O18" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="P18" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q18" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="R18" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="S18" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="T18" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="U18" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="V18" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="W18" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="X18" s="12" t="s">
-        <v>245</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="L18" s="7"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
       <c r="Y18" s="5"/>
       <c r="Z18" s="3"/>
       <c r="AA18" s="3"/>
     </row>
-    <row r="19" spans="2:27" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:27" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="1"/>
-      <c r="C19" s="9" t="s">
-        <v>246</v>
-      </c>
+      <c r="C19" s="9"/>
       <c r="D19" s="9" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="K19" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="L19" s="7"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
+        <v>255</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="P19" s="6" t="s">
+        <v>266</v>
+      </c>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
@@ -2938,51 +2965,57 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
     </row>
-    <row r="20" spans="2:27" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:27" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="1"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="N20" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="O20" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="P20" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
+        <v>276</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="R20" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="S20" s="7" t="s">
+        <v>282</v>
+      </c>
       <c r="T20" s="5"/>
       <c r="U20" s="5"/>
       <c r="V20" s="5"/>
@@ -2992,57 +3025,55 @@
       <c r="Z20" s="3"/>
       <c r="AA20" s="3"/>
     </row>
-    <row r="21" spans="2:27" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="1"/>
+    <row r="21" spans="2:27" ht="146.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="1" t="s">
+        <v>283</v>
+      </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="R21" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="S21" s="7" t="s">
-        <v>282</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="Q21" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
       <c r="T21" s="5"/>
       <c r="U21" s="5"/>
       <c r="V21" s="5"/>
@@ -3052,54 +3083,54 @@
       <c r="Z21" s="3"/>
       <c r="AA21" s="3"/>
     </row>
-    <row r="22" spans="2:27" ht="146.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="1" t="s">
-        <v>283</v>
-      </c>
+    <row r="22" spans="2:27" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="1"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="N22" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="O22" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="P22" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q22" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="R22" s="5"/>
+        <v>307</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="P22" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q22" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="R22" s="7" t="s">
+        <v>312</v>
+      </c>
       <c r="S22" s="5"/>
       <c r="T22" s="5"/>
       <c r="U22" s="5"/>
@@ -3110,56 +3141,60 @@
       <c r="Z22" s="3"/>
       <c r="AA22" s="3"/>
     </row>
-    <row r="23" spans="2:27" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:27" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="1"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="N23" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="P23" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q23" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="R23" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
+        <v>322</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="R23" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="S23" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="T23" s="11" t="s">
+        <v>329</v>
+      </c>
       <c r="U23" s="5"/>
       <c r="V23" s="5"/>
       <c r="W23" s="5"/>
@@ -3168,60 +3203,50 @@
       <c r="Z23" s="3"/>
       <c r="AA23" s="3"/>
     </row>
-    <row r="24" spans="2:27" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:27" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="1"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="L24" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="M24" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="N24" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="O24" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="P24" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q24" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="R24" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="S24" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="T24" s="11" t="s">
-        <v>329</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
       <c r="U24" s="5"/>
       <c r="V24" s="5"/>
       <c r="W24" s="5"/>
@@ -3230,48 +3255,56 @@
       <c r="Z24" s="3"/>
       <c r="AA24" s="3"/>
     </row>
-    <row r="25" spans="2:27" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:27" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="1"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9" t="s">
-        <v>330</v>
+      <c r="C25" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>342</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="M25" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="N25" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
+        <v>347</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="P25" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q25" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="R25" s="11" t="s">
+        <v>356</v>
+      </c>
       <c r="S25" s="5"/>
       <c r="T25" s="5"/>
       <c r="U25" s="5"/>
@@ -3282,60 +3315,66 @@
       <c r="Z25" s="3"/>
       <c r="AA25" s="3"/>
     </row>
-    <row r="26" spans="2:27" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:27" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="1"/>
-      <c r="C26" s="4" t="s">
-        <v>341</v>
-      </c>
+      <c r="C26" s="4"/>
       <c r="D26" s="4" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="L26" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="M26" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="N26" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="O26" s="6" t="s">
-        <v>353</v>
+        <v>364</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="O26" s="5" t="s">
+        <v>368</v>
       </c>
       <c r="P26" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="Q26" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="R26" s="11" t="s">
-        <v>356</v>
-      </c>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
+        <v>369</v>
+      </c>
+      <c r="Q26" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="R26" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="S26" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="T26" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="U26" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="V26" s="6" t="s">
+        <v>375</v>
+      </c>
       <c r="W26" s="5"/>
       <c r="X26" s="5"/>
       <c r="Y26" s="5"/>
@@ -3346,94 +3385,72 @@
       <c r="B27" s="1"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4" t="s">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>360</v>
+        <v>379</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="L27" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="M27" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="N27" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="O27" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="P27" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q27" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="R27" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="S27" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="T27" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="U27" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="V27" s="6" t="s">
-        <v>375</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
       <c r="W27" s="5"/>
       <c r="X27" s="5"/>
       <c r="Y27" s="5"/>
       <c r="Z27" s="3"/>
       <c r="AA27" s="3"/>
     </row>
-    <row r="28" spans="2:27" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:27" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="1"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>379</v>
+        <v>169</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>383</v>
+        <v>163</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
@@ -3452,39 +3469,51 @@
       <c r="Z28" s="3"/>
       <c r="AA28" s="3"/>
     </row>
-    <row r="29" spans="2:27" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:27" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="1"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>169</v>
+        <v>392</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="K29" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
+        <v>394</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="O29" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="P29" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q29" s="11" t="s">
+        <v>402</v>
+      </c>
       <c r="R29" s="5"/>
       <c r="S29" s="5"/>
       <c r="T29" s="5"/>
@@ -3496,51 +3525,41 @@
       <c r="Z29" s="3"/>
       <c r="AA29" s="3"/>
     </row>
-    <row r="30" spans="2:27" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:27" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="1"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>395</v>
+        <v>408</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>409</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="L30" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="M30" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="N30" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="O30" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="P30" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="Q30" s="11" t="s">
-        <v>402</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="M30" s="5"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
       <c r="R30" s="5"/>
       <c r="S30" s="5"/>
       <c r="T30" s="5"/>
@@ -3552,40 +3571,48 @@
       <c r="Z30" s="3"/>
       <c r="AA30" s="3"/>
     </row>
-    <row r="31" spans="2:27" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:27" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="1"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="L31" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="M31" s="5"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
+        <v>417</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="M31" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="N31" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="O31" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>424</v>
+      </c>
       <c r="Q31" s="5"/>
       <c r="R31" s="5"/>
       <c r="S31" s="5"/>
@@ -3598,50 +3625,56 @@
       <c r="Z31" s="3"/>
       <c r="AA31" s="3"/>
     </row>
-    <row r="32" spans="2:27" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:27" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="1"/>
-      <c r="C32" s="4"/>
+      <c r="C32" s="4" t="s">
+        <v>425</v>
+      </c>
       <c r="D32" s="4" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>418</v>
+        <v>429</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>432</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="M32" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="N32" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="O32" s="11" t="s">
-        <v>423</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
+        <v>435</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="O32" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="P32" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q32" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="R32" s="11" t="s">
+        <v>440</v>
+      </c>
       <c r="S32" s="5"/>
       <c r="T32" s="5"/>
       <c r="U32" s="5"/>
@@ -3652,56 +3685,50 @@
       <c r="Z32" s="3"/>
       <c r="AA32" s="3"/>
     </row>
-    <row r="33" spans="2:27" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:27" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="1"/>
-      <c r="C33" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>426</v>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13" t="s">
+        <v>441</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>431</v>
-      </c>
-      <c r="J33" s="8" t="s">
-        <v>432</v>
-      </c>
-      <c r="K33" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="L33" s="8" t="s">
-        <v>434</v>
-      </c>
-      <c r="M33" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="N33" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="O33" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="P33" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="Q33" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="R33" s="11" t="s">
-        <v>440</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="K33" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="L33" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="N33" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="O33" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
       <c r="S33" s="5"/>
       <c r="T33" s="5"/>
       <c r="U33" s="5"/>
@@ -3712,60 +3739,6 @@
       <c r="Z33" s="3"/>
       <c r="AA33" s="3"/>
     </row>
-    <row r="34" spans="2:27" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="1"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13" t="s">
-        <v>441</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="I34" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="K34" s="11" t="s">
-        <v>447</v>
-      </c>
-      <c r="L34" s="11" t="s">
-        <v>448</v>
-      </c>
-      <c r="M34" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="N34" s="12" t="s">
-        <v>450</v>
-      </c>
-      <c r="O34" s="8" t="s">
-        <v>451</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="5"/>
-      <c r="W34" s="5"/>
-      <c r="X34" s="5"/>
-      <c r="Y34" s="5"/>
-      <c r="Z34" s="3"/>
-      <c r="AA34" s="3"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
